--- a/000.模块/Read_MailTO_Setting/Mail_Setting.xlsx
+++ b/000.模块/Read_MailTO_Setting/Mail_Setting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,18 @@
   <si>
     <t>15921663052@139.com
 huangxiaohan@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesM008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangxiaohan@yaskawa.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15921663052@139.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,23 +476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -515,7 +527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="154" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -549,6 +561,23 @@
         <v>16</v>
       </c>
       <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
